--- a/table.xlsx
+++ b/table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\internet\backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\internet\internet-2018-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="42">
   <si>
     <t>STUDENT</t>
   </si>
@@ -531,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -643,11 +643,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -688,6 +759,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2077,8 +2157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2293620" y="18768060"/>
-          <a:ext cx="1798320" cy="365760"/>
+          <a:off x="2293620" y="18765715"/>
+          <a:ext cx="1798320" cy="366347"/>
           <a:chOff x="2308860" y="18775680"/>
           <a:chExt cx="1798320" cy="365760"/>
         </a:xfrm>
@@ -2600,6 +2680,537 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="24246840"/>
+          <a:ext cx="1897380" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CONNECT.PHP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="24574500"/>
+          <a:ext cx="1394460" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SEARCH</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>507024</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>155333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>653563</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>167057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Curved Down Arrow 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2825263" y="24712248"/>
+          <a:ext cx="996462" cy="756139"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="24245668"/>
+          <a:ext cx="1897380" cy="229186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CONNECT.PHP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="24573914"/>
+          <a:ext cx="1394460" cy="259666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SEARCH</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>720382</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>300112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>52753</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>162366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Right Arrow 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3768382" y="27374558"/>
+          <a:ext cx="2913771" cy="518746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>txt_search, search_type</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="27211606"/>
+          <a:ext cx="1897380" cy="229186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CONNECT.PHP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="27539852"/>
+          <a:ext cx="1394460" cy="259666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>SEARCH</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>252047</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>298942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29309</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>64481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Curved Down Arrow 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6881447" y="26382788"/>
+          <a:ext cx="996462" cy="756139"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3301,10 +3912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N70"/>
+  <dimension ref="B1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -3851,6 +4462,186 @@
         <v>32</v>
       </c>
     </row>
+    <row r="72" spans="2:14" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B73" s="26"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B74" s="20"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="22"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B75" s="20"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="22"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="30"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B76" s="20"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="22"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B77" s="20"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="22"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.5">
+      <c r="B78" s="20"/>
+      <c r="C78" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="2:14" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="25"/>
+    </row>
+    <row r="81" spans="2:16" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B82" s="26"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="28"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="28"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B83" s="20"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="22"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="22"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B84" s="20"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="22"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="22"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B85" s="20"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="22"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="22"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B86" s="20"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="22"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="22"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.5">
+      <c r="B87" s="20"/>
+      <c r="C87" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="22"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="22"/>
+    </row>
+    <row r="88" spans="2:16" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="25"/>
+      <c r="K88" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
